--- a/Comparative_NonBDNA_Analysis_Tables.xlsx
+++ b/Comparative_NonBDNA_Analysis_Tables.xlsx
@@ -488,193 +488,193 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B. aphidicola</t>
+          <t>Ca. Carsonella</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>452,078</t>
+          <t>174,014</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3,503</t>
+          <t>1,405</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3,835</t>
+          <t>1,492</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.7487</t>
+          <t>8.0741</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.6123%</t>
+          <t>9.9285%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.1572</t>
+          <t>0.1546</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.3887</t>
+          <t>0.3576</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ca. Carsonella</t>
+          <t>B. aphidicola</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>174,014</t>
+          <t>452,078</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1,405</t>
+          <t>3,503</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1,492</t>
+          <t>3,835</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.0741</t>
+          <t>7.7487</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9.9285%</t>
+          <t>9.6123%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>156</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>176</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.1546</t>
+          <t>0.1572</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.3576</t>
+          <t>0.3887</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C. shaoxiangyii</t>
+          <t>H. pylori</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3,909,366</t>
+          <t>1,674,010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>41,857</t>
+          <t>3,581</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>48,371</t>
+          <t>3,771</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.7069</t>
+          <t>2.1392</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>71.9527%</t>
+          <t>4.8139%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1,971</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4,543</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.8225</t>
+          <t>0.1971</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.6052</t>
+          <t>0.7558</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>S. pneumoniae</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4,641,652</t>
+          <t>2,110,968</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10,280</t>
+          <t>2,571</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10,532</t>
+          <t>2,607</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -684,89 +684,89 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.2147</t>
+          <t>1.2179</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.8833%</t>
+          <t>2.7005%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.1460</t>
+          <t>0.0870</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.5971</t>
+          <t>0.6895</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>H. pylori</t>
+          <t>S. aureus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,674,010</t>
+          <t>2,821,361</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3,581</t>
+          <t>2,096</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3,771</t>
+          <t>2,138</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.1392</t>
+          <t>0.7429</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.8139%</t>
+          <t>1.7030%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.1971</t>
+          <t>0.0541</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.7558</t>
+          <t>0.6851</t>
         </is>
       </c>
     </row>
@@ -830,136 +830,136 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S. cerevisiae</t>
+          <t>C. shaoxiangyii</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12,157,105</t>
+          <t>3,909,366</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19,215</t>
+          <t>41,857</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20,252</t>
+          <t>48,371</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.5806</t>
+          <t>10.7069</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.3962%</t>
+          <t>71.9527%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>1,971</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>4,543</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0834</t>
+          <t>1.8225</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.7126</t>
+          <t>0.6052</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S. aureus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2,821,361</t>
+          <t>4,641,652</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2,096</t>
+          <t>10,280</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2,138</t>
+          <t>10,532</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.7429</t>
+          <t>2.2147</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.7030%</t>
+          <t>5.8833%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>108</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>144</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.0541</t>
+          <t>0.1460</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.6851</t>
+          <t>0.5971</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S. pneumoniae</t>
+          <t>S. cerevisiae</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2,110,968</t>
+          <t>12,157,105</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2,571</t>
+          <t>19,215</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2,607</t>
+          <t>20,252</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.2179</t>
+          <t>1.5806</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.7005%</t>
+          <t>2.3962%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>381</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>656</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.0870</t>
+          <t>0.0834</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6895</t>
+          <t>0.7126</t>
         </is>
       </c>
     </row>
@@ -1020,47 +1020,47 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
+          <t>Curved_DNA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>A-philic_DNA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cruciform</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Slipped_DNA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Triplex</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Z-DNA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>R-Loop</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>G-Quadruplex</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cruciform</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Z-DNA</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>R-Loop</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Curved_DNA</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>A-philic_DNA</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>i-Motif</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Slipped_DNA</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Triplex</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -1077,201 +1077,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B. aphidicola</t>
+          <t>Ca. Carsonella</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>1093</v>
       </c>
       <c r="C2" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>2671</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="L2" t="n">
-        <v>176</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ca. Carsonella</t>
+          <t>B. aphidicola</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>2671</v>
       </c>
       <c r="C3" t="n">
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>1093</v>
+        <v>127</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="L3" t="n">
-        <v>26</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C. shaoxiangyii</t>
+          <t>H. pylori</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24198</v>
+        <v>1041</v>
       </c>
       <c r="C4" t="n">
-        <v>4947</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>8740</v>
+        <v>476</v>
       </c>
       <c r="E4" t="n">
-        <v>1621</v>
+        <v>69</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>1524</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>485</v>
+        <v>773</v>
       </c>
       <c r="I4" t="n">
-        <v>338</v>
+        <v>1102</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>1971</v>
+        <v>81</v>
       </c>
       <c r="L4" t="n">
-        <v>4543</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>S. pneumoniae</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6126</v>
+        <v>533</v>
       </c>
       <c r="C5" t="n">
-        <v>1830</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>900</v>
+        <v>852</v>
       </c>
       <c r="E5" t="n">
-        <v>783</v>
+        <v>35</v>
       </c>
       <c r="F5" t="n">
-        <v>521</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I5" t="n">
+        <v>1014</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>19</v>
       </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>108</v>
-      </c>
       <c r="L5" t="n">
-        <v>144</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>H. pylori</t>
+          <t>S. aureus</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1102</v>
+        <v>697</v>
       </c>
       <c r="C6" t="n">
-        <v>476</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>879</v>
       </c>
       <c r="E6" t="n">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="F6" t="n">
-        <v>1041</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
+        <v>41</v>
+      </c>
+      <c r="I6" t="n">
+        <v>341</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L6" t="n">
         <v>22</v>
-      </c>
-      <c r="I6" t="n">
-        <v>69</v>
-      </c>
-      <c r="J6" t="n">
-        <v>20</v>
-      </c>
-      <c r="K6" t="n">
-        <v>81</v>
-      </c>
-      <c r="L6" t="n">
-        <v>109</v>
       </c>
     </row>
     <row r="7">
@@ -1281,31 +1281,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25104</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
+        <v>1954</v>
+      </c>
+      <c r="D7" t="n">
         <v>5207</v>
       </c>
-      <c r="D7" t="n">
-        <v>7835</v>
-      </c>
       <c r="E7" t="n">
-        <v>1375</v>
+        <v>135</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>1954</v>
+        <v>7835</v>
       </c>
       <c r="H7" t="n">
+        <v>1375</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25104</v>
+      </c>
+      <c r="J7" t="n">
         <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>135</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>2563</v>
@@ -1317,121 +1317,121 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S. cerevisiae</t>
+          <t>C. shaoxiangyii</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5018</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2632</v>
+        <v>1524</v>
       </c>
       <c r="D8" t="n">
-        <v>106</v>
+        <v>4947</v>
       </c>
       <c r="E8" t="n">
-        <v>904</v>
+        <v>338</v>
       </c>
       <c r="F8" t="n">
-        <v>8440</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>239</v>
+        <v>8740</v>
       </c>
       <c r="H8" t="n">
-        <v>23</v>
+        <v>1621</v>
       </c>
       <c r="I8" t="n">
-        <v>1224</v>
+        <v>24198</v>
       </c>
       <c r="J8" t="n">
-        <v>629</v>
+        <v>485</v>
       </c>
       <c r="K8" t="n">
-        <v>381</v>
+        <v>1971</v>
       </c>
       <c r="L8" t="n">
-        <v>656</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S. aureus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>341</v>
+        <v>521</v>
       </c>
       <c r="C9" t="n">
-        <v>879</v>
+        <v>67</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>1830</v>
       </c>
       <c r="E9" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>697</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>68</v>
+        <v>900</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="I9" t="n">
-        <v>48</v>
+        <v>6126</v>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K9" t="n">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="L9" t="n">
-        <v>22</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S. pneumoniae</t>
+          <t>S. cerevisiae</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1014</v>
+        <v>8440</v>
       </c>
       <c r="C10" t="n">
-        <v>852</v>
+        <v>239</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>2632</v>
       </c>
       <c r="E10" t="n">
-        <v>114</v>
+        <v>1224</v>
       </c>
       <c r="F10" t="n">
-        <v>533</v>
+        <v>629</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>904</v>
       </c>
       <c r="I10" t="n">
-        <v>35</v>
+        <v>5018</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K10" t="n">
-        <v>19</v>
+        <v>381</v>
       </c>
       <c r="L10" t="n">
-        <v>17</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -1456,47 +1456,47 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
+          <t>Curved_DNA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>A-philic_DNA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cruciform</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Slipped_DNA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Triplex</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Z-DNA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>R-Loop</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>G-Quadruplex</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cruciform</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Z-DNA</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>R-Loop</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Curved_DNA</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>A-philic_DNA</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>i-Motif</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Slipped_DNA</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Triplex</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -1513,201 +1513,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B. aphidicola</t>
+          <t>Ca. Carsonella</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.4</v>
+        <v>6281.1</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1551.6</v>
       </c>
       <c r="E2" t="n">
-        <v>2.2</v>
+        <v>69</v>
       </c>
       <c r="F2" t="n">
-        <v>5908.3</v>
+        <v>103.4</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="I2" t="n">
-        <v>230</v>
+        <v>57.5</v>
       </c>
       <c r="J2" t="n">
-        <v>280.9</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>345.1</v>
+        <v>350.5</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3</v>
+        <v>149.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ca. Carsonella</t>
+          <t>B. aphidicola</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.5</v>
+        <v>5908.3</v>
       </c>
       <c r="C3" t="n">
-        <v>1551.6</v>
+        <v>2.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1289.6</v>
       </c>
       <c r="E3" t="n">
-        <v>11.5</v>
+        <v>230</v>
       </c>
       <c r="F3" t="n">
-        <v>6281.1</v>
+        <v>280.9</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>69</v>
+        <v>35.4</v>
       </c>
       <c r="J3" t="n">
-        <v>103.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>350.5</v>
+        <v>345.1</v>
       </c>
       <c r="L3" t="n">
-        <v>149.4</v>
+        <v>389.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C. shaoxiangyii</t>
+          <t>H. pylori</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6189.8</v>
+        <v>621.9</v>
       </c>
       <c r="C4" t="n">
-        <v>1265.4</v>
+        <v>32.9</v>
       </c>
       <c r="D4" t="n">
-        <v>2235.7</v>
+        <v>284.3</v>
       </c>
       <c r="E4" t="n">
-        <v>414.6</v>
+        <v>41.2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="G4" t="n">
-        <v>389.8</v>
+        <v>13.7</v>
       </c>
       <c r="H4" t="n">
-        <v>124.1</v>
+        <v>461.8</v>
       </c>
       <c r="I4" t="n">
-        <v>86.5</v>
+        <v>658.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>13.1</v>
       </c>
       <c r="K4" t="n">
-        <v>504.2</v>
+        <v>48.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1162.1</v>
+        <v>65.09999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>S. pneumoniae</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1319.8</v>
+        <v>252.5</v>
       </c>
       <c r="C5" t="n">
-        <v>394.3</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="n">
-        <v>193.9</v>
+        <v>403.6</v>
       </c>
       <c r="E5" t="n">
-        <v>168.7</v>
+        <v>16.6</v>
       </c>
       <c r="F5" t="n">
-        <v>112.2</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>14.4</v>
+        <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>480.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
-        <v>23.3</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>31</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>H. pylori</t>
+          <t>S. aureus</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>658.3</v>
+        <v>247</v>
       </c>
       <c r="C6" t="n">
-        <v>284.3</v>
+        <v>24.1</v>
       </c>
       <c r="D6" t="n">
-        <v>13.7</v>
+        <v>311.6</v>
       </c>
       <c r="E6" t="n">
-        <v>461.8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>621.9</v>
+        <v>5.3</v>
       </c>
       <c r="G6" t="n">
-        <v>32.9</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>13.1</v>
+        <v>14.5</v>
       </c>
       <c r="I6" t="n">
-        <v>41.2</v>
+        <v>120.9</v>
       </c>
       <c r="J6" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.4</v>
+        <v>7.1</v>
       </c>
       <c r="L6" t="n">
-        <v>65.09999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="7">
@@ -1717,31 +1717,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7448.7</v>
+        <v>0.9</v>
       </c>
       <c r="C7" t="n">
+        <v>579.8</v>
+      </c>
+      <c r="D7" t="n">
         <v>1545</v>
       </c>
-      <c r="D7" t="n">
-        <v>2324.7</v>
-      </c>
       <c r="E7" t="n">
-        <v>408</v>
+        <v>40.1</v>
       </c>
       <c r="F7" t="n">
         <v>0.9</v>
       </c>
       <c r="G7" t="n">
-        <v>579.8</v>
+        <v>2324.7</v>
       </c>
       <c r="H7" t="n">
+        <v>408</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7448.7</v>
+      </c>
+      <c r="J7" t="n">
         <v>118.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9</v>
       </c>
       <c r="K7" t="n">
         <v>760.5</v>
@@ -1753,121 +1753,121 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S. cerevisiae</t>
+          <t>C. shaoxiangyii</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>412.8</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>216.5</v>
+        <v>389.8</v>
       </c>
       <c r="D8" t="n">
-        <v>8.699999999999999</v>
+        <v>1265.4</v>
       </c>
       <c r="E8" t="n">
-        <v>74.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="F8" t="n">
-        <v>694.2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>19.7</v>
+        <v>2235.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.9</v>
+        <v>414.6</v>
       </c>
       <c r="I8" t="n">
-        <v>100.7</v>
+        <v>6189.8</v>
       </c>
       <c r="J8" t="n">
-        <v>51.7</v>
+        <v>124.1</v>
       </c>
       <c r="K8" t="n">
-        <v>31.3</v>
+        <v>504.2</v>
       </c>
       <c r="L8" t="n">
-        <v>54</v>
+        <v>1162.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S. aureus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.9</v>
+        <v>112.2</v>
       </c>
       <c r="C9" t="n">
-        <v>311.6</v>
+        <v>14.4</v>
       </c>
       <c r="D9" t="n">
-        <v>2.5</v>
+        <v>394.3</v>
       </c>
       <c r="E9" t="n">
-        <v>14.5</v>
+        <v>4.1</v>
       </c>
       <c r="F9" t="n">
-        <v>247</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="n">
-        <v>24.1</v>
+        <v>193.9</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>168.7</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>1319.8</v>
       </c>
       <c r="J9" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="K9" t="n">
-        <v>7.1</v>
+        <v>23.3</v>
       </c>
       <c r="L9" t="n">
-        <v>7.8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S. pneumoniae</t>
+          <t>S. cerevisiae</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>480.3</v>
+        <v>694.2</v>
       </c>
       <c r="C10" t="n">
-        <v>403.6</v>
+        <v>19.7</v>
       </c>
       <c r="D10" t="n">
-        <v>4.7</v>
+        <v>216.5</v>
       </c>
       <c r="E10" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>412.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="L10" t="n">
         <v>54</v>
-      </c>
-      <c r="F10" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -2299,47 +2299,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B. aphidicola</t>
+          <t>Ca. Carsonella</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>583</v>
+        <v>270</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2406</v>
+        <v>976</v>
       </c>
       <c r="F2" t="n">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -2351,53 +2351,53 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>18</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG2" t="n">
         <v>25</v>
       </c>
-      <c r="S2" t="n">
-        <v>126</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>33</v>
-      </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -2420,13 +2420,13 @@
         <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
         <v>0</v>
@@ -2549,219 +2549,219 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ca. Carsonella</t>
+          <t>B. aphidicola</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>583</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2406</v>
+      </c>
+      <c r="F3" t="n">
+        <v>135</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>265</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>79</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>25</v>
+      </c>
+      <c r="S3" t="n">
+        <v>126</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
-        <v>270</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>976</v>
-      </c>
-      <c r="F3" t="n">
-        <v>23</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="AZ3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>117</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>18</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
       <c r="BT3" t="n">
         <v>0</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
@@ -2799,194 +2799,194 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C. shaoxiangyii</t>
+          <t>H. pylori</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20456</v>
+        <v>912</v>
       </c>
       <c r="C4" t="n">
-        <v>4947</v>
+        <v>476</v>
       </c>
       <c r="D4" t="n">
-        <v>8552</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="F4" t="n">
-        <v>2991</v>
+        <v>82</v>
       </c>
       <c r="G4" t="n">
-        <v>1621</v>
+        <v>773</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="I4" t="n">
-        <v>1814</v>
+        <v>22</v>
       </c>
       <c r="J4" t="n">
-        <v>1524</v>
+        <v>55</v>
       </c>
       <c r="K4" t="n">
-        <v>1258</v>
+        <v>25</v>
       </c>
       <c r="L4" t="n">
-        <v>987</v>
+        <v>108</v>
       </c>
       <c r="M4" t="n">
-        <v>803</v>
+        <v>54</v>
       </c>
       <c r="N4" t="n">
-        <v>306</v>
+        <v>54</v>
       </c>
       <c r="O4" t="n">
-        <v>484</v>
+        <v>16</v>
       </c>
       <c r="P4" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>301</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="S4" t="n">
+        <v>14</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
         <v>4</v>
       </c>
-      <c r="T4" t="n">
-        <v>262</v>
-      </c>
-      <c r="U4" t="n">
-        <v>188</v>
-      </c>
-      <c r="V4" t="n">
-        <v>193</v>
-      </c>
-      <c r="W4" t="n">
-        <v>145</v>
-      </c>
-      <c r="X4" t="n">
-        <v>103</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>117</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>122</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>91</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>102</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>42</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AX4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AY4" t="n">
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF4" t="n">
         <v>2</v>
       </c>
-      <c r="BE4" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>12</v>
-      </c>
       <c r="BG4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BH4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BK4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>1</v>
@@ -2995,19 +2995,19 @@
         <v>3</v>
       </c>
       <c r="BN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
         <v>3</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BQ4" t="n">
         <v>4</v>
       </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0</v>
-      </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
@@ -3016,20 +3016,20 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
         <v>2</v>
       </c>
-      <c r="BV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ4" t="n">
         <v>0</v>
       </c>
@@ -3043,128 +3043,128 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>S. pneumoniae</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5823</v>
+        <v>995</v>
       </c>
       <c r="C5" t="n">
-        <v>1830</v>
+        <v>852</v>
       </c>
       <c r="D5" t="n">
-        <v>892</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
         <v>114</v>
       </c>
-      <c r="G5" t="n">
-        <v>783</v>
-      </c>
       <c r="H5" t="n">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="I5" t="n">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="M5" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="O5" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="n">
         <v>5</v>
       </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>9</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>7</v>
-      </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3197,10 +3197,10 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="BN5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
@@ -3299,135 +3299,135 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>H. pylori</t>
+          <t>S. aureus</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>912</v>
+        <v>337</v>
       </c>
       <c r="C6" t="n">
-        <v>476</v>
+        <v>879</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>420</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>773</v>
+        <v>41</v>
       </c>
       <c r="H6" t="n">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K6" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
         <v>2</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
         <v>2</v>
       </c>
-      <c r="R6" t="n">
-        <v>15</v>
-      </c>
-      <c r="S6" t="n">
-        <v>14</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AQ6" t="n">
         <v>3</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>0</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="BE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
         <v>0</v>
@@ -3483,31 +3483,31 @@
         <v>0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BK6" t="n">
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
       </c>
       <c r="BP6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BR6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ6" t="n">
         <v>0</v>
@@ -3799,224 +3799,224 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S. cerevisiae</t>
+          <t>C. shaoxiangyii</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4745</v>
+        <v>20456</v>
       </c>
       <c r="C8" t="n">
-        <v>2632</v>
+        <v>4947</v>
       </c>
       <c r="D8" t="n">
-        <v>105</v>
+        <v>8552</v>
       </c>
       <c r="E8" t="n">
-        <v>6350</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>404</v>
+        <v>2991</v>
       </c>
       <c r="G8" t="n">
-        <v>904</v>
+        <v>1621</v>
       </c>
       <c r="H8" t="n">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>80</v>
+        <v>1814</v>
       </c>
       <c r="J8" t="n">
-        <v>239</v>
+        <v>1524</v>
       </c>
       <c r="K8" t="n">
-        <v>201</v>
+        <v>1258</v>
       </c>
       <c r="L8" t="n">
-        <v>137</v>
+        <v>987</v>
       </c>
       <c r="M8" t="n">
-        <v>52</v>
+        <v>803</v>
       </c>
       <c r="N8" t="n">
-        <v>592</v>
+        <v>306</v>
       </c>
       <c r="O8" t="n">
-        <v>22</v>
+        <v>484</v>
       </c>
       <c r="P8" t="n">
+        <v>394</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>301</v>
+      </c>
+      <c r="R8" t="n">
+        <v>32</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>262</v>
+      </c>
+      <c r="U8" t="n">
+        <v>188</v>
+      </c>
+      <c r="V8" t="n">
+        <v>193</v>
+      </c>
+      <c r="W8" t="n">
+        <v>145</v>
+      </c>
+      <c r="X8" t="n">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>117</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>122</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>102</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX8" t="n">
         <v>9</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE8" t="n">
         <v>8</v>
       </c>
-      <c r="R8" t="n">
-        <v>632</v>
-      </c>
-      <c r="S8" t="n">
-        <v>440</v>
-      </c>
-      <c r="T8" t="n">
-        <v>46</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>10</v>
-      </c>
-      <c r="W8" t="n">
-        <v>40</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="BF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" t="n">
         <v>6</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>189</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>39</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>31</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>11</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
       <c r="BL8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BM8" t="n">
         <v>3</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BO8" t="n">
         <v>4</v>
       </c>
       <c r="BP8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ8" t="n">
         <v>0</v>
       </c>
       <c r="BR8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV8" t="n">
         <v>0</v>
@@ -4031,230 +4031,230 @@
         <v>0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA8" t="n">
         <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC8" t="n">
         <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S. aureus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>337</v>
+        <v>5823</v>
       </c>
       <c r="C9" t="n">
-        <v>879</v>
+        <v>1830</v>
       </c>
       <c r="D9" t="n">
+        <v>892</v>
+      </c>
+      <c r="E9" t="n">
+        <v>224</v>
+      </c>
+      <c r="F9" t="n">
+        <v>114</v>
+      </c>
+      <c r="G9" t="n">
+        <v>783</v>
+      </c>
+      <c r="H9" t="n">
+        <v>297</v>
+      </c>
+      <c r="I9" t="n">
+        <v>126</v>
+      </c>
+      <c r="J9" t="n">
+        <v>67</v>
+      </c>
+      <c r="K9" t="n">
+        <v>29</v>
+      </c>
+      <c r="L9" t="n">
+        <v>144</v>
+      </c>
+      <c r="M9" t="n">
+        <v>23</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16</v>
+      </c>
+      <c r="O9" t="n">
+        <v>24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="n">
-        <v>97</v>
-      </c>
-      <c r="F9" t="n">
-        <v>19</v>
-      </c>
-      <c r="G9" t="n">
-        <v>41</v>
-      </c>
-      <c r="H9" t="n">
-        <v>600</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="AG9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
-        <v>68</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
         <v>2</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>48</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>10</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>0</v>
-      </c>
       <c r="BO9" t="n">
         <v>0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR9" t="n">
         <v>0</v>
@@ -4299,207 +4299,207 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S. pneumoniae</t>
+          <t>S. cerevisiae</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>995</v>
+        <v>4745</v>
       </c>
       <c r="C10" t="n">
-        <v>852</v>
+        <v>2632</v>
       </c>
       <c r="D10" t="n">
+        <v>105</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6350</v>
+      </c>
+      <c r="F10" t="n">
+        <v>404</v>
+      </c>
+      <c r="G10" t="n">
+        <v>904</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2090</v>
+      </c>
+      <c r="I10" t="n">
+        <v>80</v>
+      </c>
+      <c r="J10" t="n">
+        <v>239</v>
+      </c>
+      <c r="K10" t="n">
+        <v>201</v>
+      </c>
+      <c r="L10" t="n">
+        <v>137</v>
+      </c>
+      <c r="M10" t="n">
+        <v>52</v>
+      </c>
+      <c r="N10" t="n">
+        <v>592</v>
+      </c>
+      <c r="O10" t="n">
+        <v>22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>632</v>
+      </c>
+      <c r="S10" t="n">
+        <v>440</v>
+      </c>
+      <c r="T10" t="n">
+        <v>46</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
-        <v>123</v>
-      </c>
-      <c r="F10" t="n">
-        <v>17</v>
-      </c>
-      <c r="G10" t="n">
-        <v>114</v>
-      </c>
-      <c r="H10" t="n">
-        <v>410</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="W10" t="n">
+        <v>40</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>189</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>7</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>14</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="AK10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>39</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BM10" t="n">
         <v>3</v>
       </c>
-      <c r="N10" t="n">
-        <v>34</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
         <v>4</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>0</v>
-      </c>
       <c r="BP10" t="n">
         <v>1</v>
       </c>
@@ -4507,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="BW10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
@@ -4531,13 +4531,13 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA10" t="n">
         <v>0</v>
       </c>
       <c r="CB10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
@@ -4850,7 +4850,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B. aphidicola</t>
+          <t>Ca. Carsonella</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4884,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M2" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -4902,19 +4902,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -4935,10 +4935,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ca. Carsonella</t>
+          <t>B. aphidicola</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5059,37 +5059,37 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>33</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>26</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>22</v>
       </c>
-      <c r="M3" t="n">
-        <v>25</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>6</v>
-      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -5110,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -5122,29 +5122,29 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>2</v>
       </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" t="n">
         <v>0</v>
@@ -5200,122 +5200,122 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C. shaoxiangyii</t>
+          <t>H. pylori</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>301</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>193</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
         <v>2</v>
       </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>1</v>
@@ -5324,17 +5324,17 @@
         <v>3</v>
       </c>
       <c r="AP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
         <v>3</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AS4" t="n">
         <v>4</v>
       </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
       <c r="AT4" t="n">
         <v>0</v>
       </c>
@@ -5342,25 +5342,25 @@
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
         <v>2</v>
       </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
       <c r="BB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
         <v>0</v>
@@ -5369,26 +5369,26 @@
         <v>0</v>
       </c>
       <c r="BE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>S. pneumoniae</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5397,49 +5397,49 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -5457,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -5550,72 +5550,72 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>H. pylori</t>
+          <t>S. aureus</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="V6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -5650,10 +5650,10 @@
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -5668,22 +5668,22 @@
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
         <v>0</v>
@@ -5900,158 +5900,158 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S. cerevisiae</t>
+          <t>C. shaoxiangyii</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>394</v>
+      </c>
+      <c r="C8" t="n">
+        <v>301</v>
+      </c>
+      <c r="D8" t="n">
+        <v>193</v>
+      </c>
+      <c r="E8" t="n">
+        <v>145</v>
+      </c>
+      <c r="F8" t="n">
+        <v>103</v>
+      </c>
+      <c r="G8" t="n">
+        <v>117</v>
+      </c>
+      <c r="H8" t="n">
+        <v>122</v>
+      </c>
+      <c r="I8" t="n">
+        <v>91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>81</v>
+      </c>
+      <c r="K8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>41</v>
+      </c>
+      <c r="O8" t="n">
+        <v>42</v>
+      </c>
+      <c r="P8" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>23</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>32</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>16</v>
+      </c>
+      <c r="V8" t="n">
+        <v>11</v>
+      </c>
+      <c r="W8" t="n">
+        <v>16</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="n">
         <v>9</v>
       </c>
-      <c r="C8" t="n">
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH8" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>40</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM8" t="n">
         <v>6</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>16</v>
-      </c>
-      <c r="L8" t="n">
-        <v>24</v>
-      </c>
-      <c r="M8" t="n">
-        <v>20</v>
-      </c>
-      <c r="N8" t="n">
-        <v>27</v>
-      </c>
-      <c r="O8" t="n">
-        <v>16</v>
-      </c>
-      <c r="P8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>39</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>31</v>
-      </c>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
-      <c r="V8" t="n">
-        <v>22</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ8" t="n">
         <v>4</v>
       </c>
       <c r="AR8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
@@ -6066,29 +6066,29 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S. aureus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -6097,118 +6097,118 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>9</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
         <v>2</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -6250,23 +6250,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S. pneumoniae</t>
+          <t>S. cerevisiae</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6281,49 +6281,49 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L10" t="n">
+        <v>24</v>
+      </c>
+      <c r="M10" t="n">
+        <v>20</v>
+      </c>
+      <c r="N10" t="n">
+        <v>27</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q10" t="n">
         <v>8</v>
       </c>
-      <c r="M10" t="n">
+      <c r="R10" t="n">
+        <v>39</v>
+      </c>
+      <c r="S10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -6335,10 +6335,10 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -6368,16 +6368,16 @@
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR10" t="n">
         <v>1</v>
@@ -6386,13 +6386,13 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
@@ -6410,13 +6410,13 @@
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
@@ -6471,17 +6471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B. aphidicola</t>
+          <t>Ca. Carsonella</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -6493,17 +6493,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ca. Carsonella</t>
+          <t>B. aphidicola</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -6515,20 +6515,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C. shaoxiangyii</t>
+          <t>H. pylori</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2991</v>
+        <v>82</v>
       </c>
       <c r="C4" t="n">
-        <v>1258</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6537,17 +6537,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>S. pneumoniae</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6559,17 +6559,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>H. pylori</t>
+          <t>S. aureus</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -6603,20 +6603,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S. cerevisiae</t>
+          <t>C. shaoxiangyii</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>404</v>
+        <v>2991</v>
       </c>
       <c r="C8" t="n">
-        <v>201</v>
+        <v>1258</v>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -6625,17 +6625,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S. aureus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -6647,20 +6647,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S. pneumoniae</t>
+          <t>S. cerevisiae</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>404</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -6735,156 +6735,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B. aphidicola</t>
+          <t>Ca. Carsonella</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1107</v>
+        <v>0.1121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1296</v>
+        <v>0.1288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0453</v>
+        <v>0.078</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1572</v>
+        <v>0.1546</v>
       </c>
       <c r="F2" t="n">
-        <v>1.1515</v>
+        <v>1.129</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5416</v>
+        <v>1.4556</v>
       </c>
       <c r="H2" t="n">
         <v>0.027</v>
       </c>
       <c r="I2" t="n">
-        <v>115.77</v>
+        <v>110.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ca. Carsonella</t>
+          <t>B. aphidicola</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1121</v>
+        <v>0.1107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1288</v>
+        <v>0.1296</v>
       </c>
       <c r="D3" t="n">
-        <v>0.078</v>
+        <v>0.0453</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1546</v>
+        <v>0.1572</v>
       </c>
       <c r="F3" t="n">
-        <v>1.129</v>
+        <v>1.1515</v>
       </c>
       <c r="G3" t="n">
-        <v>1.4556</v>
+        <v>1.5416</v>
       </c>
       <c r="H3" t="n">
         <v>0.027</v>
       </c>
       <c r="I3" t="n">
-        <v>110.97</v>
+        <v>115.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C. shaoxiangyii</t>
+          <t>H. pylori</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8677</v>
+        <v>0.0522</v>
       </c>
       <c r="C4" t="n">
-        <v>2.051</v>
+        <v>0.0684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.0238</v>
       </c>
       <c r="E4" t="n">
-        <v>1.8225</v>
+        <v>0.1971</v>
       </c>
       <c r="F4" t="n">
-        <v>1.2059</v>
+        <v>1.0844</v>
       </c>
       <c r="G4" t="n">
-        <v>25.104</v>
+        <v>1.1964</v>
       </c>
       <c r="H4" t="n">
-        <v>0.029</v>
+        <v>0.011</v>
       </c>
       <c r="I4" t="n">
-        <v>13.36</v>
+        <v>443.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>S. pneumoniae</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0615</v>
+        <v>0.0278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0864</v>
+        <v>0.0305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0291</v>
+        <v>0.0134</v>
       </c>
       <c r="E5" t="n">
-        <v>0.146</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0458</v>
+        <v>1.0297</v>
       </c>
       <c r="G5" t="n">
-        <v>1.2254</v>
+        <v>1.1702</v>
       </c>
       <c r="H5" t="n">
-        <v>0.012</v>
+        <v>0.02</v>
       </c>
       <c r="I5" t="n">
-        <v>424.73</v>
+        <v>798.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>H. pylori</t>
+          <t>S. aureus</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0522</v>
+        <v>0.0173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0684</v>
+        <v>0.0195</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0238</v>
+        <v>0.0119</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1971</v>
+        <v>0.0541</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0844</v>
+        <v>1.0158</v>
       </c>
       <c r="G6" t="n">
-        <v>1.1964</v>
+        <v>1.1606</v>
       </c>
       <c r="H6" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="I6" t="n">
-        <v>443.78</v>
+        <v>1323.46</v>
       </c>
     </row>
     <row r="7">
@@ -6921,94 +6921,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S. cerevisiae</t>
+          <t>C. shaoxiangyii</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0305</v>
+        <v>0.8677</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0349</v>
+        <v>2.051</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0131</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0834</v>
+        <v>1.8225</v>
       </c>
       <c r="F8" t="n">
-        <v>1.2714</v>
+        <v>1.2059</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4807</v>
+        <v>25.104</v>
       </c>
       <c r="H8" t="n">
-        <v>0.076</v>
+        <v>0.029</v>
       </c>
       <c r="I8" t="n">
-        <v>61.45</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S. aureus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0173</v>
+        <v>0.0615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0195</v>
+        <v>0.0864</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0119</v>
+        <v>0.0291</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0541</v>
+        <v>0.146</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0158</v>
+        <v>1.0458</v>
       </c>
       <c r="G9" t="n">
-        <v>1.1606</v>
+        <v>1.2254</v>
       </c>
       <c r="H9" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="I9" t="n">
-        <v>1323.46</v>
+        <v>424.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S. pneumoniae</t>
+          <t>S. cerevisiae</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0278</v>
+        <v>0.0305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0305</v>
+        <v>0.0349</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0134</v>
+        <v>0.0131</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.0834</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0297</v>
+        <v>1.2714</v>
       </c>
       <c r="G10" t="n">
-        <v>1.1702</v>
+        <v>3.4807</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.076</v>
       </c>
       <c r="I10" t="n">
-        <v>798.37</v>
+        <v>61.45</v>
       </c>
     </row>
   </sheetData>
@@ -7065,111 +7065,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B. aphidicola</t>
+          <t>Ca. Carsonella</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3887</v>
+        <v>0.3576</v>
       </c>
       <c r="C2" t="n">
-        <v>1.6358</v>
+        <v>1.5567</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7625</v>
+        <v>0.7779</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ca. Carsonella</t>
+          <t>B. aphidicola</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3576</v>
+        <v>0.3887</v>
       </c>
       <c r="C3" t="n">
-        <v>1.5567</v>
+        <v>1.6358</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7779</v>
+        <v>0.7625</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C. shaoxiangyii</t>
+          <t>H. pylori</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6052</v>
+        <v>0.7558</v>
       </c>
       <c r="C4" t="n">
-        <v>2.5329</v>
+        <v>4.0952</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5780999999999999</v>
+        <v>0.3077</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.175</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>S. pneumoniae</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5971</v>
+        <v>0.6895</v>
       </c>
       <c r="C5" t="n">
-        <v>2.4821</v>
+        <v>3.2203</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5959</v>
+        <v>0.3944</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>H. pylori</t>
+          <t>S. aureus</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7558</v>
+        <v>0.6851</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0952</v>
+        <v>3.1752</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3077</v>
+        <v>0.4194</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.066</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
@@ -7197,67 +7197,67 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S. cerevisiae</t>
+          <t>C. shaoxiangyii</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7126</v>
+        <v>0.6052</v>
       </c>
       <c r="C8" t="n">
-        <v>3.4792</v>
+        <v>2.5329</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4392</v>
+        <v>0.5780999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.532</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S. aureus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6851</v>
+        <v>0.5971</v>
       </c>
       <c r="C9" t="n">
-        <v>3.1752</v>
+        <v>2.4821</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4194</v>
+        <v>0.5959</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S. pneumoniae</t>
+          <t>S. cerevisiae</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6895</v>
+        <v>0.7126</v>
       </c>
       <c r="C10" t="n">
-        <v>3.2203</v>
+        <v>3.4792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3944</v>
+        <v>0.4392</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>0.057</v>
+        <v>0.532</v>
       </c>
     </row>
   </sheetData>

--- a/Comparative_NonBDNA_Analysis_Tables.xlsx
+++ b/Comparative_NonBDNA_Analysis_Tables.xlsx
@@ -11,10 +11,12 @@
     <sheet name="Table2_Class_Raw_Counts" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Table3_Class_per_Mb" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Table4_Subclass_Counts" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table5_Hybrid_Subtypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Table6_Cluster_Subtypes" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Table7_Structural_Metrics" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Table8_Diversity_Indices" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Table4b_22Subclass_Counts" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Table4c_22Subclass_DensityMb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Table5_Hybrid_Subtypes" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Table6_Cluster_Subtypes" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Table7_Structural_Metrics" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Table8_Diversity_Indices" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +486,11 @@
           <t>Simpson D</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>GC (%)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -541,6 +548,11 @@
           <t>0.3576</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>17.63%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -598,6 +610,11 @@
           <t>0.3887</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>18.28%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -655,6 +672,11 @@
           <t>0.7558</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>38.79%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -712,6 +734,11 @@
           <t>0.6895</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>39.73%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -769,6 +796,11 @@
           <t>0.6851</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>32.87%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -826,6 +858,11 @@
           <t>0.5895</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>76.16%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -883,6 +920,11 @@
           <t>0.6052</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>75.30%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -940,6 +982,11 @@
           <t>0.5971</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>50.79%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -996,6 +1043,260 @@
         <is>
           <t>0.7126</t>
         </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>38.15%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Simpson D</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Neff</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Dominance Ratio</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Max Class Diversity</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Max Cluster Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ca. Carsonella</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3576</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.5567</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7779</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B. aphidicola</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3887</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.6358</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>H. pylori</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7558</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.0952</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3077</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S. pneumoniae</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6895</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.2203</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3944</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>S. aureus</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6851</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.1752</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>M. marina</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.4363</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5975</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.231</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C. shaoxiangyii</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6052</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.5329</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5780999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.4821</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>S. cerevisiae</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7126</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.4792</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4392</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.532</v>
       </c>
     </row>
   </sheetData>
@@ -4557,7 +4858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4568,282 +4869,112 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>Cruciform_G-Quadruplex_Overlap</t>
+          <t>Local Curvature</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>G-Quadruplex_Cruciform_Overlap</t>
+          <t>Global Curvature</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>G-Quadruplex_R-Loop_Overlap</t>
+          <t>A-philic DNA</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>A-philic_DNA_G-Quadruplex_Overlap</t>
+          <t>Cruciform forming IRs</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>G-Quadruplex_A-philic_DNA_Overlap</t>
+          <t>Direct Repeat</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Cruciform_Z-DNA_Overlap</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Z-DNA_Cruciform_Overlap</t>
+          <t>Sticky DNA</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>G-Quadruplex_Z-DNA_Overlap</t>
+          <t>Triplex</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Z-DNA_G-Quadruplex_Overlap</t>
+          <t>Z-DNA</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>R-Loop_G-Quadruplex_Overlap</t>
+          <t>eGZ</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Cruciform_Curved_DNA_Overlap</t>
+          <t>R-loop formation sites</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Curved_DNA_Cruciform_Overlap</t>
+          <t>Two-tetrad weak PQS</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Slipped_DNA_G-Quadruplex_Overlap</t>
+          <t>Bulged G4</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>G-Quadruplex_Slipped_DNA_Overlap</t>
+          <t>Intramolecular G-triplex</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Cruciform_R-Loop_Overlap</t>
+          <t>Extended-loop canonical</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>R-Loop_A-philic_DNA_Overlap</t>
+          <t>Canonical intramolecular G4</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Triplex_Curved_DNA_Overlap</t>
+          <t>Higher-order G4 array/G4-wire</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>R-Loop_Cruciform_Overlap</t>
+          <t>Stacked G4</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Curved_DNA_Triplex_Overlap</t>
+          <t>Canonical i-motif</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>A-philic_DNA_R-Loop_Overlap</t>
+          <t>AC-motif</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>Slipped_DNA_Cruciform_Overlap</t>
+          <t>Mixed_Cluster_3_classes</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>Cruciform_A-philic_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>A-philic_DNA_Cruciform_Overlap</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Slipped_DNA_Triplex_Overlap</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>G-Quadruplex_i-Motif_Overlap</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>i-Motif_G-Quadruplex_Overlap</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>i-Motif_A-philic_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Curved_DNA_Slipped_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Slipped_DNA_Curved_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Cruciform_i-Motif_Overlap</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>i-Motif_Cruciform_Overlap</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Cruciform_Slipped_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>A-philic_DNA_i-Motif_Overlap</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>R-Loop_i-Motif_Overlap</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Z-DNA_R-Loop_Overlap</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Slipped_DNA_i-Motif_Overlap</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>R-Loop_Z-DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>i-Motif_Slipped_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Triplex_Slipped_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>R-Loop_Slipped_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>i-Motif_R-Loop_Overlap</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Slipped_DNA_R-Loop_Overlap</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>G-Quadruplex_Curved_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Curved_DNA_R-Loop_Overlap</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Z-DNA_Slipped_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Triplex_Cruciform_Overlap</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Curved_DNA_G-Quadruplex_Overlap</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Slipped_DNA_Z-DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Slipped_DNA_A-philic_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>R-Loop_Triplex_Overlap</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>A-philic_DNA_Slipped_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>R-Loop_Curved_DNA_Overlap</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Triplex_G-Quadruplex_Overlap</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Cruciform_Triplex_Overlap</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>G-Quadruplex_Triplex_Overlap</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>i-Motif_Triplex_Overlap</t>
+          <t>Mixed_Cluster_4_classes</t>
         </is>
       </c>
     </row>
@@ -4854,28 +4985,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -4884,16 +5015,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4902,124 +5033,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5029,28 +5058,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2406</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -5059,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -5077,124 +5106,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -5204,49 +5131,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>420</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>621</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>773</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>912</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Q4" t="n">
         <v>6</v>
@@ -5255,121 +5182,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -5379,49 +5204,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>995</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -5433,117 +5258,15 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5554,52 +5277,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>879</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>337</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -5611,115 +5334,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>19</v>
+      </c>
+      <c r="W6" t="n">
         <v>3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5729,172 +5350,70 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>177</v>
+        <v>1954</v>
       </c>
       <c r="E7" t="n">
-        <v>201</v>
+        <v>5207</v>
       </c>
       <c r="F7" t="n">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="G7" t="n">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>136</v>
+        <v>7428</v>
       </c>
       <c r="K7" t="n">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>21157</v>
       </c>
       <c r="N7" t="n">
-        <v>19</v>
+        <v>2271</v>
       </c>
       <c r="O7" t="n">
-        <v>19</v>
+        <v>941</v>
       </c>
       <c r="P7" t="n">
-        <v>35</v>
+        <v>625</v>
       </c>
       <c r="Q7" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S7" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="U7" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>8</v>
+        <v>2917</v>
       </c>
       <c r="W7" t="n">
-        <v>19</v>
-      </c>
-      <c r="X7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="8">
@@ -5904,172 +5423,70 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>193</v>
+        <v>1524</v>
       </c>
       <c r="E8" t="n">
-        <v>145</v>
+        <v>4947</v>
       </c>
       <c r="F8" t="n">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="G8" t="n">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>81</v>
+        <v>8552</v>
       </c>
       <c r="K8" t="n">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1621</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>20456</v>
       </c>
       <c r="N8" t="n">
-        <v>41</v>
+        <v>1814</v>
       </c>
       <c r="O8" t="n">
-        <v>42</v>
+        <v>987</v>
       </c>
       <c r="P8" t="n">
-        <v>27</v>
+        <v>803</v>
       </c>
       <c r="Q8" t="n">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S8" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="U8" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>2991</v>
       </c>
       <c r="W8" t="n">
-        <v>16</v>
-      </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>1</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="9">
@@ -6079,172 +5496,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>297</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
+        <v>1830</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>892</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>783</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5823</v>
+      </c>
+      <c r="N9" t="n">
+        <v>126</v>
+      </c>
+      <c r="O9" t="n">
+        <v>144</v>
+      </c>
+      <c r="P9" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>10</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>24</v>
+      </c>
+      <c r="U9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>9</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -6254,172 +5569,70 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>6350</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>2090</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>2632</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>592</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K10" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>24</v>
+        <v>904</v>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>4745</v>
       </c>
       <c r="N10" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="O10" t="n">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="Q10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6433,7 +5646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6444,27 +5657,112 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
+          <t>Local Curvature</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Global Curvature</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>A-philic DNA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Cruciform forming IRs</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Direct Repeat</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sticky DNA</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Triplex</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Z-DNA</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>eGZ</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>R-loop formation sites</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Two-tetrad weak PQS</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Bulged G4</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Intramolecular G-triplex</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Extended-loop canonical</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Canonical intramolecular G4</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Higher-order G4 array/G4-wire</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Stacked G4</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Canonical i-motif</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>AC-motif</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>Mixed_Cluster_3_classes</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Mixed_Cluster_4_classes</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Mixed_Cluster_5_classes</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Mixed_Cluster_6_classes</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Mixed_Cluster_7_classes</t>
         </is>
       </c>
     </row>
@@ -6475,19 +5773,70 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>5608.74</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>672.36</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1551.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>63.21</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>103.44</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>132.17</v>
+      </c>
+      <c r="W2" t="n">
+        <v>17.24</v>
       </c>
     </row>
     <row r="3">
@@ -6497,19 +5846,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135</v>
+        <v>5322.09</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>586.1799999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2.21</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1289.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>174.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I3" t="n">
+        <v>278.71</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M3" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>298.62</v>
+      </c>
+      <c r="W3" t="n">
+        <v>88.48</v>
       </c>
     </row>
     <row r="4">
@@ -6519,19 +5919,70 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82</v>
+        <v>250.89</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>370.97</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>32.86</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>284.35</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>32.26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>461.77</v>
+      </c>
+      <c r="M4" t="n">
+        <v>544.8</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="V4" t="n">
+        <v>48.98</v>
+      </c>
+      <c r="W4" t="n">
+        <v>14.93</v>
       </c>
     </row>
     <row r="5">
@@ -6541,18 +5992,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>58.27</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>194.22</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>403.61</v>
       </c>
       <c r="F5" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>54</v>
+      </c>
+      <c r="M5" t="n">
+        <v>471.35</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="W5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6563,19 +6065,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>34.38</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>212.66</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>24.1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>311.55</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>17.01</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="M6" t="n">
+        <v>119.45</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="7">
@@ -6585,19 +6138,70 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2917</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1286</v>
+        <v>0.89</v>
       </c>
       <c r="D7" t="n">
-        <v>300</v>
+        <v>579.77</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>1544.98</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>34.12</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2203.98</v>
+      </c>
+      <c r="K7" t="n">
+        <v>120.76</v>
+      </c>
+      <c r="L7" t="n">
+        <v>407.98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6277.53</v>
+      </c>
+      <c r="N7" t="n">
+        <v>673.83</v>
+      </c>
+      <c r="O7" t="n">
+        <v>279.21</v>
+      </c>
+      <c r="P7" t="n">
+        <v>185.44</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="T7" t="n">
+        <v>118.09</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="V7" t="n">
+        <v>865.51</v>
+      </c>
+      <c r="W7" t="n">
+        <v>381.57</v>
       </c>
     </row>
     <row r="8">
@@ -6607,19 +6211,70 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2991</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1258</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>262</v>
+        <v>389.83</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>1265.42</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>78.27</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2187.57</v>
+      </c>
+      <c r="K8" t="n">
+        <v>48.09</v>
+      </c>
+      <c r="L8" t="n">
+        <v>414.65</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5232.56</v>
+      </c>
+      <c r="N8" t="n">
+        <v>464.01</v>
+      </c>
+      <c r="O8" t="n">
+        <v>252.47</v>
+      </c>
+      <c r="P8" t="n">
+        <v>205.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="T8" t="n">
+        <v>123.81</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V8" t="n">
+        <v>765.09</v>
+      </c>
+      <c r="W8" t="n">
+        <v>321.79</v>
       </c>
     </row>
     <row r="9">
@@ -6629,19 +6284,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114</v>
+        <v>48.26</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>63.99</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>14.43</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>394.26</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.45</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J9" t="n">
+        <v>192.17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L9" t="n">
+        <v>168.69</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1254.51</v>
+      </c>
+      <c r="N9" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="V9" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="10">
@@ -6651,19 +6357,70 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404</v>
+        <v>522.33</v>
       </c>
       <c r="C10" t="n">
-        <v>201</v>
+        <v>171.92</v>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>19.66</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>216.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>48.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="I10" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L10" t="n">
+        <v>74.36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>390.31</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="O10" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V10" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="W10" t="n">
+        <v>16.53</v>
       </c>
     </row>
   </sheetData>
@@ -6677,7 +6434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:BE10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6686,49 +6443,284 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>SLI</t>
+          <t>Cruciform_G-Quadruplex_Overlap</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>G-Quadruplex_Cruciform_Overlap</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>WSC</t>
+          <t>G-Quadruplex_R-Loop_Overlap</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>A-philic_DNA_G-Quadruplex_Overlap</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Mean Overlap Depth</t>
+          <t>G-Quadruplex_A-philic_DNA_Overlap</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>CV (CC)</t>
+          <t>Cruciform_Z-DNA_Overlap</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Max Local Density</t>
+          <t>Z-DNA_Cruciform_Overlap</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Mean IMD (bp)</t>
+          <t>G-Quadruplex_Z-DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Z-DNA_G-Quadruplex_Overlap</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>R-Loop_G-Quadruplex_Overlap</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Cruciform_Curved_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Curved_DNA_Cruciform_Overlap</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Slipped_DNA_G-Quadruplex_Overlap</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>G-Quadruplex_Slipped_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Cruciform_R-Loop_Overlap</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>R-Loop_A-philic_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Triplex_Curved_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>R-Loop_Cruciform_Overlap</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Curved_DNA_Triplex_Overlap</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>A-philic_DNA_R-Loop_Overlap</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Slipped_DNA_Cruciform_Overlap</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Cruciform_A-philic_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>A-philic_DNA_Cruciform_Overlap</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Slipped_DNA_Triplex_Overlap</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>G-Quadruplex_i-Motif_Overlap</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>i-Motif_G-Quadruplex_Overlap</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>i-Motif_A-philic_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Curved_DNA_Slipped_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Slipped_DNA_Curved_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Cruciform_i-Motif_Overlap</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>i-Motif_Cruciform_Overlap</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Cruciform_Slipped_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>A-philic_DNA_i-Motif_Overlap</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>R-Loop_i-Motif_Overlap</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Z-DNA_R-Loop_Overlap</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Slipped_DNA_i-Motif_Overlap</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>R-Loop_Z-DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>i-Motif_Slipped_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Triplex_Slipped_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>R-Loop_Slipped_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>i-Motif_R-Loop_Overlap</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Slipped_DNA_R-Loop_Overlap</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>G-Quadruplex_Curved_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Curved_DNA_R-Loop_Overlap</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Z-DNA_Slipped_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Triplex_Cruciform_Overlap</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Curved_DNA_G-Quadruplex_Overlap</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Slipped_DNA_Z-DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Slipped_DNA_A-philic_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>R-Loop_Triplex_Overlap</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>A-philic_DNA_Slipped_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>R-Loop_Curved_DNA_Overlap</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>Triplex_G-Quadruplex_Overlap</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>Cruciform_Triplex_Overlap</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>G-Quadruplex_Triplex_Overlap</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>i-Motif_Triplex_Overlap</t>
         </is>
       </c>
     </row>
@@ -6739,28 +6731,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1121</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1288</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.078</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1546</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.129</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4556</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>110.97</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>22</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6770,28 +6906,172 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1107</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1296</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0453</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1572</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.1515</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5416</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>115.77</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>33</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>26</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6801,28 +7081,172 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0522</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0684</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0238</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1971</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0844</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>1.1964</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>443.78</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6832,28 +7256,172 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0278</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0305</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0134</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0297</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.1702</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>798.37</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6863,28 +7431,172 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0173</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0195</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0541</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0158</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.1606</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1323.46</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6894,28 +7606,172 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9147</v>
+        <v>515</v>
       </c>
       <c r="C7" t="n">
-        <v>2.1412</v>
+        <v>471</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7173</v>
+        <v>177</v>
       </c>
       <c r="E7" t="n">
-        <v>1.7998</v>
+        <v>201</v>
       </c>
       <c r="F7" t="n">
-        <v>1.2382</v>
+        <v>194</v>
       </c>
       <c r="G7" t="n">
-        <v>40.1915</v>
+        <v>176</v>
       </c>
       <c r="H7" t="n">
-        <v>0.039</v>
+        <v>169</v>
       </c>
       <c r="I7" t="n">
-        <v>7.84</v>
+        <v>143</v>
+      </c>
+      <c r="J7" t="n">
+        <v>136</v>
+      </c>
+      <c r="K7" t="n">
+        <v>73</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>28</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>18</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>18</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>19</v>
+      </c>
+      <c r="X7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6925,28 +7781,172 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8677</v>
+        <v>394</v>
       </c>
       <c r="C8" t="n">
-        <v>2.051</v>
+        <v>301</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6860000000000001</v>
+        <v>193</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8225</v>
+        <v>145</v>
       </c>
       <c r="F8" t="n">
-        <v>1.2059</v>
+        <v>103</v>
       </c>
       <c r="G8" t="n">
-        <v>25.104</v>
+        <v>117</v>
       </c>
       <c r="H8" t="n">
-        <v>0.029</v>
+        <v>122</v>
       </c>
       <c r="I8" t="n">
-        <v>13.36</v>
+        <v>91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>81</v>
+      </c>
+      <c r="K8" t="n">
+        <v>75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>41</v>
+      </c>
+      <c r="O8" t="n">
+        <v>42</v>
+      </c>
+      <c r="P8" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>23</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>32</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>16</v>
+      </c>
+      <c r="V8" t="n">
+        <v>11</v>
+      </c>
+      <c r="W8" t="n">
+        <v>16</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -6956,28 +7956,172 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0615</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0864</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0291</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>0.146</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0458</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.2254</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.012</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>424.73</v>
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>9</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6987,28 +8131,172 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0305</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0349</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0131</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0834</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>1.2714</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4807</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>61.45</v>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16</v>
+      </c>
+      <c r="L10" t="n">
+        <v>24</v>
+      </c>
+      <c r="M10" t="n">
+        <v>20</v>
+      </c>
+      <c r="N10" t="n">
+        <v>27</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>39</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>31</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>22</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7031,34 +8319,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Simpson D</t>
+          <t>Mixed_Cluster_3_classes</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Neff</t>
+          <t>Mixed_Cluster_4_classes</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Dominance Ratio</t>
+          <t>Mixed_Cluster_5_classes</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Max Class Diversity</t>
+          <t>Mixed_Cluster_6_classes</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Max Cluster Score</t>
+          <t>Mixed_Cluster_7_classes</t>
         </is>
       </c>
     </row>
@@ -7069,19 +8352,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3576</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>1.5567</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7779</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7091,19 +8374,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3887</v>
+        <v>135</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6358</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7625</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7113,19 +8396,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7558</v>
+        <v>82</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0952</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3077</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7135,19 +8418,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6895</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>3.2203</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3944</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7157,19 +8440,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6851</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>3.1752</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4194</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7179,19 +8462,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5895</v>
+        <v>2917</v>
       </c>
       <c r="C7" t="n">
-        <v>2.4363</v>
+        <v>1286</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5975</v>
+        <v>300</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>0.231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -7201,19 +8484,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6052</v>
+        <v>2991</v>
       </c>
       <c r="C8" t="n">
-        <v>2.5329</v>
+        <v>1258</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5780999999999999</v>
+        <v>262</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7223,19 +8506,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5971</v>
+        <v>114</v>
       </c>
       <c r="C9" t="n">
-        <v>2.4821</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5959</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7245,19 +8528,364 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7126</v>
+        <v>404</v>
       </c>
       <c r="C10" t="n">
-        <v>3.4792</v>
+        <v>201</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4392</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.532</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SLI</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>WSC</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Mean Overlap Depth</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CV (CC)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Max Local Density</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mean IMD (bp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ca. Carsonella</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1121</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1288</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1546</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.4556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I2" t="n">
+        <v>110.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B. aphidicola</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1107</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1296</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0453</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1572</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.1515</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.5416</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I3" t="n">
+        <v>115.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>H. pylori</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0522</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0684</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1971</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.0844</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.1964</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I4" t="n">
+        <v>443.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S. pneumoniae</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0297</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.1702</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I5" t="n">
+        <v>798.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>S. aureus</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0541</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0158</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.1606</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1323.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>M. marina</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9147</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.1412</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7173</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.7998</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.2382</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40.1915</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C. shaoxiangyii</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8677</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.051</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.8225</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.2059</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25.104</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0615</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0864</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0291</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0458</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.2254</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I9" t="n">
+        <v>424.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>S. cerevisiae</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0349</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0834</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.2714</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.4807</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="I10" t="n">
+        <v>61.45</v>
       </c>
     </row>
   </sheetData>
